--- a/Output_testing/R1_201907/Country/HKD/MN/NIGERIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/NIGERIA_201907_HKD_MN.xlsx
@@ -810,136 +810,443 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>4809.725735</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>90.628702748097</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>4619.436674</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>91.22089340846907</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>5769.654825</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>93.0019913707429</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>2956.084799</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>93.53547454360212</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-8.320274575654985</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>193.732693</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>3.650466495151482</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>206.751549</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>4.082762108097874</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>155.60657</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>2.508247255566264</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>71.41195500000001</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>2.259593872703162</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-7.772933854830977</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D20" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>23.502658</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0.4641114515760331</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>46.212988</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0.7449145644847558</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>13.450176</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>0.425586097963277</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-48.54231466953713</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>18.072357</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.3405338185069071</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>26.957069</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.5323263617172698</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>27.707252</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.4466176382416428</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>12.122891</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>0.3835885773334215</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-20.40709938552783</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>42.007966</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.791547725052594</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>7.519338</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.1484857956947178</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>35.708386</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.575589200283772</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>10.791597</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>0.3414642052284079</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-41.11725344725468</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>10.425879</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.196452758605918</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>12.356303</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.2440022622736242</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>3.658063</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.05896490411965571</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>8.162131</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0.2582634965784166</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>309.226192863675</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>29.506253</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.5559804403997155</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>6.863142</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.1355277686461012</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>10.91405</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.1759253221738194</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>6.628999</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.2097526320705741</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>40.12681806594101</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>3.816727</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.07191782563328136</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>5.629273</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.1111623231443767</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>7.966607</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.1284150157922316</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>6.298496</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.1992949635512062</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>4.527069682102081</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>11.451045</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.2157697570795234</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>18.668085</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.3686422202754587</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>23.172122</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.3735151504987652</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>5.778342</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.1828364197224868</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-46.63148999053315</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>2.250068</v>
+      </c>
+      <c r="F27" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>3.623244</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.05840365107493168</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>5.543942</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.1754196110976337</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>302.3290918036927</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>187.708491</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>3.536953658363399</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>134.077496</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>2.64765377993586</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>119.572973</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>1.927415927021262</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>64.115619</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>2.028725580149297</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-8.089225484849205</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1278,551 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>4.470143</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>74.29458138918777</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>5.175863</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>33.19470627903852</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>6.049316</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>75.25810851629964</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>3.815016</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>81.59770851495787</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-2.014134048725613</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>0.3336489778536835</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>0.7811182056637321</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>0.634053</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>13.56148227872035</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>0.3683260504212459</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>0.06877253955291877</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>2.506097879195687</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>062</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>SUGAR CONFECTIONERY</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>1.201310006681787</v>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0.2083339565900842</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>0.6373026406715822</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>1.13702356230807</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>0.6077346175596677</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-48.57008398494062</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.184210382264846</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>0.5173251634727839</v>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0.0907129425663087</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-66.66666666666667</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>7.393370742034529</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>0.992995</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>6.368440849681272</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>1.041025</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>12.95114562012975</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>0.740764</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>9.215669589250783</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.3893958914627998</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>1.083803</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>18.0130009696213</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>9.210070999999999</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>59.06756064719847</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1854,443 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>4809.725735</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>90.73156786959476</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>4619.436674</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>91.50263622520636</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>5769.654825</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>93.12264786565646</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>2956.084799</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>93.67405346607772</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-8.320274575654985</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>193.732693</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>3.654609836809929</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>206.751549</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>4.095372036080633</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>155.60657</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>2.511501339890402</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>71.41195500000001</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>2.262941608796229</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-7.772933854830977</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>23.502658</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0.4655448958535578</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>46.212988</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>0.7458809822897521</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>13.450176</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>0.4262166315994629</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-48.54231466953713</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>18.072357</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.3409203301919763</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>26.957069</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.5339704930447515</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>27.707252</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.4471970593701861</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>12.122891</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>0.3841568888962825</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-20.40709938552783</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>42.007966</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.7924461452047076</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>7.519338</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.1489444056113866</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>35.708386</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.5763359431695182</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>10.791597</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>0.3419701067791878</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-41.11725344725468</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>10.425879</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.1966757358335491</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>12.356303</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.2447558822185135</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>3.658063</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.05904140246715485</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>8.162131</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>0.2586461308382549</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>309.226192863675</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>29.506253</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.5566114876708108</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>6.863142</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.135946356689451</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>10.91405</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.176153559574193</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>6.628999</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.2100633943121791</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>40.12681806594101</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>3.816727</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.07199945359051013</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>5.629273</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.111505656616211</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>7.966607</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.1285816155119945</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>6.298496</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.1995902320729997</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>4.527069682102081</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>11.451045</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.2160146594294911</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>18.668085</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.36978080041459</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>23.172122</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.3739997318307566</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>5.778342</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.1831073038352586</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-46.63148999053315</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>2.250068</v>
+      </c>
+      <c r="F53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>3.623244</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.0584794212786122</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>5.543942</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.1756795067233908</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>302.3290918036927</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>181.691709</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>3.427466457497739</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>118.485061</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>2.346973494804181</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>111.534881</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>1.800181078960975</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>59.440223</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>1.883574730069028</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-8.097312273925883</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2322,451 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>118.752546</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>25.62145497013099</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>68.36504600000001</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>12.60698389704106</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>22.727051</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>9.335471248803232</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>61.207843</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>39.91649612974705</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>409.5805349194021</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>ORES AND CONCENTRATES OF BASE METALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>75.575</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>16.3056837481838</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>83.0787</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>15.32028272294449</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>77.8322</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>31.97072358094778</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>47.902028</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>31.239152068617</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-7.330400532392356</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>57.321188</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>12.36733263113713</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>149.662449</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>27.5987832222731</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>76.12599400000001</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>31.26987431293076</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>19.067407</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>12.43474758160995</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-69.94577666788828</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>14.881147</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>3.210681796787749</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>10.745467</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1.98153789635695</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>13.761378</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>5.652688888800985</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>5.578391</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>3.637929583006474</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-37.50433002570905</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>4.030627</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>0.8696279082883338</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>10.292619</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>1.898029615768544</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>2.690705</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>1.105246746113744</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>5.151022</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>3.359222276910524</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>462.5548245614035</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>1.353548</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>0.2920347419912231</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>1.456441</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.2685777207549949</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>4.08275</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>1.677049751903641</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>3.505442</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.286062621518173</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>104.6790564113104</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>HIDES AND SKINS (EXCEPT FURSKINS), RAW</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>173.596518</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>37.45431587553949</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>199.909949</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>36.86476723648075</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>28.074434</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>11.53198764914216</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>2.897274</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>1.889447834451816</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-87.847389390453</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>7.01313</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>1.513117828182603</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>9.973814000000001</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.839239784759052</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>7.172752</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>2.946313627350767</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>2.676485</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.745461004790285</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-41.96752548271949</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE VEGETABLE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>5.321382</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>2.18583610627261</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>1.99485</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.300934952150264</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-0.08925029750098679</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>056</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>VEGETABLES, ROOTS AND TUBERS, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.09058677016393699</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>0.901875</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.588154853733624</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>763.0382775119617</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>10.938307</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>2.35999437224671</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>8.748352000000001</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>1.613256177574238</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>5.439175</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>2.234221317570384</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>2.457102</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>1.602391093464832</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-5.160088297425991</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
